--- a/input/mappings/scaling/REAS_scaling_mapping.xlsx
+++ b/input/mappings/scaling/REAS_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24120" windowHeight="13620" tabRatio="500"/>
+    <workbookView xWindow="17500" yWindow="3540" windowWidth="24120" windowHeight="13620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>1A3di_International-shipping</t>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation</t>
-  </si>
-  <si>
     <t>1A3eii_Other-transp</t>
   </si>
   <si>
@@ -618,6 +615,9 @@
   </si>
   <si>
     <t>Other-process</t>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-navigation</t>
   </si>
 </sst>
 </file>
@@ -2992,23 +2992,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.875" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3019,1150 +3019,1150 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="B7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="93"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="B26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="93"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>100</v>
-      </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>65</v>
       </c>
-      <c r="C38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
         <v>66</v>
       </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
         <v>66</v>
       </c>
-      <c r="C40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
         <v>66</v>
       </c>
-      <c r="C41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="79" t="s">
-        <v>157</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="93" t="s">
-        <v>182</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="93" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" t="s">
         <v>70</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C78" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="B54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="B55" t="s">
-        <v>196</v>
-      </c>
-      <c r="C55" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="B65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="93" t="s">
-        <v>188</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B71" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="B72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="B75" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="B76" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="B77" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="B83" t="s">
         <v>71</v>
       </c>
-      <c r="C78" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="B79" t="s">
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="B81" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B83" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="B84" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="B85" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="2"/>
       <c r="B86" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="2"/>
       <c r="B87" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="2"/>
       <c r="B88" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="B89" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="B90" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="60" t="s">
+      <c r="B91" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="B91" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="61" t="s">
+      <c r="B92" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="B92" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="62" t="s">
+      <c r="B93" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="B93" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="B94" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="76" t="s">
-        <v>154</v>
-      </c>
-      <c r="B95" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="84" t="s">
+      <c r="B102" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" t="s">
+        <v>75</v>
+      </c>
+      <c r="C105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="B96" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="B97" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="B98" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="90" t="s">
-        <v>176</v>
-      </c>
-      <c r="B99" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="90" t="s">
+      <c r="B107" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="B100" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="B102" t="s">
-        <v>73</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="B111" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B112" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="B103" t="s">
-        <v>74</v>
-      </c>
-      <c r="C103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="B104" t="s">
-        <v>75</v>
-      </c>
-      <c r="C104" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="113" spans="1:4">
+      <c r="A113" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B113" t="s">
         <v>76</v>
       </c>
-      <c r="C105" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="C113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="B114" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="85" t="s">
-        <v>168</v>
-      </c>
-      <c r="B107" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="B108" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="91" t="s">
-        <v>179</v>
-      </c>
-      <c r="B109" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="94" t="s">
+    <row r="115" spans="1:4">
+      <c r="A115" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115" t="s">
         <v>78</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C115" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B116" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="B112" t="s">
+    <row r="117" spans="1:4">
+      <c r="A117" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B117" t="s">
         <v>78</v>
       </c>
-      <c r="C112" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="B113" t="s">
-        <v>77</v>
-      </c>
-      <c r="C113" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="B114" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B115" t="s">
-        <v>79</v>
-      </c>
-      <c r="C115" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="B116" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="73" t="s">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="B117" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="74" t="s">
-        <v>152</v>
-      </c>
       <c r="B118" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="2"/>
       <c r="C120" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="C121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="C122" t="s">
         <v>21</v>
       </c>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="C124" s="81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B125" s="93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B126" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="C126" s="81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="B124" s="93" t="s">
+      <c r="B127" s="93" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" s="93" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B129" s="93" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B130" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="C130" s="81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B131" s="93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B132" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="C124" s="81" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="B125" s="93" t="s">
+      <c r="C132" s="81" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="B133" s="93" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="82" t="s">
-        <v>162</v>
-      </c>
-      <c r="B126" s="93" t="s">
-        <v>195</v>
-      </c>
-      <c r="C126" s="81" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="82" t="s">
-        <v>159</v>
-      </c>
-      <c r="B127" s="93" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="82" t="s">
+    <row r="134" spans="1:3">
+      <c r="A134" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B134" s="93" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B135" s="93" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="B128" s="93" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="B129" s="93" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="B130" s="82" t="s">
-        <v>194</v>
-      </c>
-      <c r="C130" s="81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="B131" s="93" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="87" t="s">
-        <v>170</v>
-      </c>
-      <c r="B132" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="C132" s="81" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="B133" s="93" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="B134" s="93" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="B135" s="93" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="82" t="s">
-        <v>164</v>
-      </c>
       <c r="B136" s="93" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="B138" s="95" t="s">
+        <v>197</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="B138" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="B139" s="95" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="B139" s="95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B141" s="95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="B141" s="95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="93" t="s">
-        <v>186</v>
-      </c>
       <c r="B142" s="95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="B144" s="95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="B144" s="95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="93" t="s">
-        <v>190</v>
-      </c>
       <c r="B145" s="95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4187,14 +4187,14 @@
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4243,16 +4243,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4266,19 +4266,19 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>9</v>
       </c>
